--- a/JOE/joe_resultsetFeb16.xlsx
+++ b/JOE/joe_resultsetFeb16.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikasgawai/Dropbox/Mac (2)/Documents/GitHub/home/JOE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F31B70-C2B5-8249-A50A-F2DD86B4CEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A389050-6449-3C42-B5F0-DA1DD5B657B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JOE Listings Export" sheetId="1" r:id="rId1"/>
+    <sheet name="Personal" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JOE Listings Export'!$A$1:$O$91</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="608">
   <si>
     <t>joe_issue_ID</t>
   </si>
@@ -2893,12 +2894,30 @@
   <si>
     <t>CHINA Zhejiang Hangzhou</t>
   </si>
+  <si>
+    <t>U Chicago</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>5th March, 2025</t>
+  </si>
+  <si>
+    <t>Notre Dam</t>
+  </si>
+  <si>
+    <t>Swapnil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2909,6 +2928,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2951,24 +2976,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEBF1DE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3279,25 +3296,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="0.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="0.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="11" width="15" style="2" customWidth="1"/>
-    <col min="12" max="12" width="75" style="2" customWidth="1"/>
-    <col min="13" max="15" width="30" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="2" width="1.5" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.5" customWidth="1"/>
+    <col min="7" max="7" width="0.33203125" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="75" customWidth="1"/>
+    <col min="13" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -3348,3492 +3363,3540 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>111475526</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>111475662</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>111475637</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>111475608</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>111475636</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>111475471</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>111475639</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>111475601</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>111475623</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>136</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
         <v>137</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>111475615</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>142</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>111475638</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>30810</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>154</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
         <v>155</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>111474136</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>173</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
         <v>176</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" t="s">
         <v>177</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>111475669</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>111475654</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>196</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
         <v>197</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>111475655</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>196</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" t="s">
         <v>200</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>111473976</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>211</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>212</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <v>111475584</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>231</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>232</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>233</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>234</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
         <v>235</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
         <v>111475590</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>237</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>239</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>240</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>241</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s">
         <v>242</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>243</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" t="s">
         <v>244</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>111475645</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>251</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>252</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" t="s">
         <v>253</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" t="s">
         <v>254</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
         <v>111474123</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>259</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>260</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" t="s">
         <v>262</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" t="s">
         <v>177</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
         <v>111475642</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>277</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>279</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>280</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" t="s">
         <v>282</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
         <v>283</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>111475622</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>287</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>212</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" t="s">
         <v>288</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" t="s">
         <v>289</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
         <v>111475620</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>290</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>292</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" t="s">
         <v>293</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
         <v>111475656</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>295</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>296</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>297</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>298</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>299</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" t="s">
         <v>300</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
         <v>111475650</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>315</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>316</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>317</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>318</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
         <v>319</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
         <v>111475634</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>323</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>324</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>212</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
         <v>111474388</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>333</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>334</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>335</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>336</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>337</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>331</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
         <v>338</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" t="s">
         <v>177</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
         <v>111475558</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>340</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>341</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <v>225965</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>342</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
         <v>343</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
         <v>111475618</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>350</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>351</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>352</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>353</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" t="s">
         <v>354</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
         <v>111475679</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>356</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>357</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>358</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>359</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" t="s">
         <v>360</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>361</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
         <v>111475632</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>363</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>364</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" t="s">
         <v>365</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" t="s">
         <v>366</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" t="s">
         <v>367</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
         <v>111474396</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>369</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>370</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>371</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>372</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>373</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" t="s">
         <v>374</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" t="s">
         <v>375</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N33" t="s">
         <v>177</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
         <v>111475598</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>384</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>385</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" t="s">
         <v>386</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>387</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" t="s">
         <v>23</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
         <v>111475606</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>388</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>389</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
         <v>29</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" t="s">
         <v>95</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
         <v>111475568</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>391</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>392</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>393</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>394</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" t="s">
         <v>95</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
         <v>111475580</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>397</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>398</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>399</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" t="s">
         <v>400</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>401</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" t="s">
         <v>96</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
         <v>111475643</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>404</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>405</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>406</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>407</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>408</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" t="s">
         <v>409</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" t="s">
         <v>410</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
         <v>111475647</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>403</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>411</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>412</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>413</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>414</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>415</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>408</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" t="s">
         <v>416</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" t="s">
         <v>410</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
         <v>111475512</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>425</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>427</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>428</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>429</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>430</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>431</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" t="s">
         <v>432</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N40" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
         <v>111475609</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>434</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>442</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>443</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>444</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" t="s">
         <v>438</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>439</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" t="s">
         <v>445</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" t="s">
         <v>441</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
         <v>111475624</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>446</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>448</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>449</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>450</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>451</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" t="s">
         <v>452</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>453</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" t="s">
         <v>454</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
         <v>111475653</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>456</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>457</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s">
         <v>458</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>459</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>460</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" t="s">
         <v>461</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" t="s">
         <v>462</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" t="s">
         <v>463</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" t="s">
         <v>464</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
         <v>111475658</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>466</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>467</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" t="s">
         <v>468</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44">
         <v>5981446</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" t="s">
         <v>469</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" t="s">
         <v>470</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
         <v>111475627</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>472</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>473</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>474</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" t="s">
         <v>475</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>476</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" t="s">
         <v>477</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
         <v>111475393</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>488</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
         <v>489</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>490</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>491</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" t="s">
         <v>343</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
         <v>111475570</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>500</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>501</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>502</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" t="s">
         <v>503</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" t="s">
         <v>504</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" t="s">
         <v>505</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" t="s">
         <v>46</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
         <v>111475559</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>523</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>524</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>525</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" t="s">
         <v>526</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>527</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" t="s">
         <v>528</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" t="s">
         <v>529</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" t="s">
         <v>530</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" t="s">
         <v>31</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
         <v>111475567</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>531</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" t="s">
         <v>533</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>534</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49">
         <v>5915186</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" t="s">
         <v>535</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" t="s">
         <v>102</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" t="s">
         <v>23</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
         <v>111475648</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>537</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>538</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>539</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>540</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" t="s">
         <v>541</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" t="s">
         <v>542</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" t="s">
         <v>46</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
         <v>111475630</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>544</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>545</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" t="s">
         <v>546</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" t="s">
         <v>547</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" t="s">
         <v>45</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" t="s">
         <v>548</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
         <v>111475585</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>550</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>551</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>309</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>552</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" t="s">
         <v>553</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" t="s">
         <v>554</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" t="s">
         <v>555</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" t="s">
         <v>556</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
         <v>111475599</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>256</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
         <v>264</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>558</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>559</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>560</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" t="s">
         <v>561</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" t="s">
         <v>562</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" t="s">
         <v>563</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" t="s">
         <v>23</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
         <v>111475594</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>569</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" t="s">
         <v>570</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" t="s">
         <v>571</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" t="s">
         <v>572</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" t="s">
         <v>573</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" t="s">
         <v>137</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N54" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
         <v>111475564</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M55" t="s">
         <v>22</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
         <v>111475554</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" t="s">
         <v>34</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" t="s">
         <v>37</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" t="s">
         <v>23</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
         <v>111475516</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" t="s">
         <v>45</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="N57" t="s">
         <v>54</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58">
         <v>111475573</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>58</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" t="s">
         <v>59</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" t="s">
         <v>60</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" t="s">
         <v>61</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
         <v>111475560</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
         <v>64</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59">
         <v>5914146</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" t="s">
         <v>65</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" t="s">
         <v>66</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
         <v>111475621</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>70</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>71</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>72</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" t="s">
         <v>73</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" t="s">
         <v>74</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N60" t="s">
         <v>23</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
         <v>111475641</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>105</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>106</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" t="s">
         <v>107</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" t="s">
         <v>108</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="M61" t="s">
         <v>45</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="N61" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="O61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
         <v>111475604</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>128</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" t="s">
         <v>129</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" t="s">
         <v>130</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" t="s">
         <v>131</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" t="s">
         <v>132</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" t="s">
         <v>23</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
         <v>111475631</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>145</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>146</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>147</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" t="s">
         <v>148</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" t="s">
         <v>149</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" t="s">
         <v>45</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" t="s">
         <v>23</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
         <v>111475380</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>157</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>158</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>159</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>160</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>161</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" t="s">
         <v>162</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" t="s">
         <v>163</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" t="s">
         <v>164</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
         <v>111475220</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>167</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>168</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" t="s">
         <v>162</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" t="s">
         <v>169</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="M65" t="s">
         <v>45</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
         <v>111475612</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>179</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>180</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" t="s">
         <v>181</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>182</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>183</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" t="s">
         <v>184</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" t="s">
         <v>185</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" t="s">
         <v>186</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
         <v>111475649</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" t="s">
         <v>202</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>203</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" t="s">
         <v>204</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" t="s">
         <v>205</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" t="s">
         <v>206</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N67" t="s">
         <v>23</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O67" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
         <v>111475661</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>215</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>216</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" t="s">
         <v>217</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" t="s">
         <v>218</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>219</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" t="s">
         <v>205</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" t="s">
         <v>220</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N68" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="O68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
         <v>111475550</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>222</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" t="s">
         <v>223</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" t="s">
         <v>224</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>225</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" t="s">
         <v>226</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="M69" t="s">
         <v>227</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N69" t="s">
         <v>96</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
         <v>111475592</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
         <v>237</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" t="s">
         <v>246</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" t="s">
         <v>247</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>248</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" t="s">
         <v>242</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" t="s">
         <v>243</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" t="s">
         <v>249</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="N70" t="s">
         <v>23</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
         <v>111475579</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" t="s">
         <v>264</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" t="s">
         <v>265</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" t="s">
         <v>266</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" t="s">
         <v>267</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" t="s">
         <v>268</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71">
         <v>1299</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" t="s">
         <v>269</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" t="s">
         <v>270</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="N71" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="O71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72">
         <v>111475565</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>272</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" t="s">
         <v>273</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" t="s">
         <v>275</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" t="s">
         <v>276</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" t="s">
         <v>235</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N72" t="s">
         <v>23</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="O72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
         <v>111475514</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" t="s">
         <v>304</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" t="s">
         <v>305</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" t="s">
         <v>306</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" t="s">
         <v>124</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="N73" t="s">
         <v>96</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
         <v>111475625</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>277</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" t="s">
         <v>308</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>309</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>310</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" t="s">
         <v>311</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" t="s">
         <v>312</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" t="s">
         <v>96</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
         <v>111475659</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" t="s">
         <v>327</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" t="s">
         <v>328</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" t="s">
         <v>329</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" t="s">
         <v>330</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" t="s">
         <v>331</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" t="s">
         <v>332</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="N75" t="s">
         <v>23</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="O75" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
         <v>111475536</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>345</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>346</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" t="s">
         <v>347</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" t="s">
         <v>348</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" t="s">
         <v>95</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="N76" t="s">
         <v>23</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="O76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
         <v>111475588</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>377</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>378</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>378</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" t="s">
         <v>379</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" t="s">
         <v>380</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M77" t="s">
         <v>381</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="N77" t="s">
         <v>382</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="O77" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
         <v>111475577</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" t="s">
         <v>418</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" t="s">
         <v>419</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" t="s">
         <v>420</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" t="s">
         <v>421</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="M78" t="s">
         <v>422</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="N78" t="s">
         <v>423</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="O78" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79">
         <v>111475607</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" t="s">
         <v>434</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" t="s">
         <v>50</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" t="s">
         <v>436</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" t="s">
         <v>437</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" t="s">
         <v>438</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" t="s">
         <v>439</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="M79" t="s">
         <v>440</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="N79" t="s">
         <v>441</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="O79" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
         <v>111475593</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" t="s">
         <v>479</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>480</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" t="s">
         <v>481</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" t="s">
         <v>269</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M80" t="s">
         <v>95</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="N80" t="s">
         <v>23</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="O80" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
         <v>111475617</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
         <v>483</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>50</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" t="s">
         <v>181</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>484</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" t="s">
         <v>485</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" t="s">
         <v>486</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="M81" t="s">
         <v>60</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="N81" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="O81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
         <v>111475640</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>67</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" t="s">
         <v>493</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>494</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" t="s">
         <v>495</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" t="s">
         <v>496</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="M82" t="s">
         <v>497</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="N82" t="s">
         <v>96</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="O82" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
         <v>111475619</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>67</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
         <v>507</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" t="s">
         <v>508</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" t="s">
         <v>509</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" t="s">
         <v>509</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" t="s">
         <v>510</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" t="s">
         <v>511</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="M83" t="s">
         <v>45</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="O83" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
         <v>111475611</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>513</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" t="s">
         <v>514</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>515</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>516</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>517</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" t="s">
         <v>518</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" t="s">
         <v>519</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M84" t="s">
         <v>520</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N84" t="s">
         <v>521</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O84" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
         <v>111475571</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>277</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>565</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" t="s">
         <v>566</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" t="s">
         <v>567</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="M85" t="s">
         <v>45</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="N85" t="s">
         <v>23</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="O85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
         <v>111475646</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>47</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
         <v>575</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" t="s">
         <v>576</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" t="s">
         <v>577</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>578</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" t="s">
         <v>579</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" t="s">
         <v>580</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" t="s">
         <v>581</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="M86" t="s">
         <v>582</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="N86" t="s">
         <v>23</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="O86" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
         <v>111475475</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" t="s">
         <v>584</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>585</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" t="s">
         <v>586</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" t="s">
         <v>587</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" t="s">
         <v>588</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M87" t="s">
         <v>505</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="N87" t="s">
         <v>589</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="O87" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
         <v>111475578</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" t="s">
         <v>590</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" t="s">
         <v>591</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" t="s">
         <v>585</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" t="s">
         <v>592</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" t="s">
         <v>588</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="M88" t="s">
         <v>95</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="N88" t="s">
         <v>23</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="O88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
         <v>111475591</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" t="s">
         <v>594</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" t="s">
         <v>595</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" t="s">
         <v>588</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="M89" t="s">
         <v>45</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="N89" t="s">
         <v>23</v>
       </c>
-      <c r="O89" s="2" t="s">
+      <c r="O89" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="2">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90">
         <v>111475561</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>38</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" t="s">
         <v>50</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>585</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" t="s">
         <v>596</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" t="s">
         <v>588</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" t="s">
         <v>45</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="N90" t="s">
         <v>23</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="O90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
         <v>111475489</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
         <v>598</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" t="s">
         <v>599</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" t="s">
         <v>600</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" t="s">
         <v>601</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="M91" t="s">
         <v>45</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="N91" t="s">
         <v>23</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O91" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O91">
-      <sortCondition sortBy="cellColor" ref="D1:D91" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="D1:D91" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6745B76A-2BCE-D143-873F-81FDC5A18DB7}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JOE/joe_resultsetFeb16.xlsx
+++ b/JOE/joe_resultsetFeb16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vikasgawai/Dropbox/Mac (2)/Documents/GitHub/home/JOE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A389050-6449-3C42-B5F0-DA1DD5B657B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FE41B-742C-CB42-A84B-A80991FB173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JOE Listings Export" sheetId="1" r:id="rId1"/>
@@ -2936,7 +2936,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2961,6 +2961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2974,13 +2980,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3296,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3777,41 +3784,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
         <v>111474136</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6860,7 +6867,7 @@
   </sheetPr>
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
